--- a/SQL-ROW_NUMBER()/ResultTable.xlsx
+++ b/SQL-ROW_NUMBER()/ResultTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQL\SQL-ROW_NUMBER()\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366688BD-AB13-490C-A10E-84E4038011CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F858C8DA-9EA3-411C-AC4B-75E596B1F079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,7 +375,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
